--- a/Reactor/New/height/data/fig6.xlsx
+++ b/Reactor/New/height/data/fig6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hanzhiyun\Matlab\Reactor\New\height\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reactor\height\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -362,7 +362,7 @@
         <v>0.06</v>
       </c>
       <c r="B1">
-        <v>2.4599999999999997E-2</v>
+        <v>2.2799999999999997E-2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -370,7 +370,7 @@
         <v>6.5999999999999989E-2</v>
       </c>
       <c r="B2">
-        <v>2.6999999999999996E-2</v>
+        <v>2.4599999999999997E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -378,7 +378,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="B3">
-        <v>0.03</v>
+        <v>2.6999999999999996E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -386,7 +386,7 @@
         <v>7.8E-2</v>
       </c>
       <c r="B4">
-        <v>3.2399999999999998E-2</v>
+        <v>2.8799999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -394,7 +394,7 @@
         <v>8.3999999999999991E-2</v>
       </c>
       <c r="B5">
-        <v>3.4799999999999998E-2</v>
+        <v>3.1199999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -402,7 +402,7 @@
         <v>0.09</v>
       </c>
       <c r="B6">
-        <v>3.7199999999999997E-2</v>
+        <v>3.2999999999999995E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -410,7 +410,7 @@
         <v>9.5999999999999988E-2</v>
       </c>
       <c r="B7">
-        <v>3.9599999999999996E-2</v>
+        <v>3.5399999999999994E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -418,7 +418,7 @@
         <v>0.10199999999999999</v>
       </c>
       <c r="B8">
-        <v>4.1999999999999996E-2</v>
+        <v>3.7199999999999997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -426,7 +426,7 @@
         <v>0.10799999999999998</v>
       </c>
       <c r="B9">
-        <v>4.4399999999999995E-2</v>
+        <v>3.9599999999999996E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -434,7 +434,7 @@
         <v>0.11399999999999999</v>
       </c>
       <c r="B10">
-        <v>4.6799999999999994E-2</v>
+        <v>4.1399999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -442,7 +442,7 @@
         <v>0.12</v>
       </c>
       <c r="B11">
-        <v>4.9199999999999994E-2</v>
+        <v>4.3799999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -450,7 +450,7 @@
         <v>0.126</v>
       </c>
       <c r="B12">
-        <v>5.1599999999999993E-2</v>
+        <v>4.6199999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -458,7 +458,7 @@
         <v>0.13199999999999998</v>
       </c>
       <c r="B13">
-        <v>5.3999999999999992E-2</v>
+        <v>4.7999999999999994E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -466,7 +466,7 @@
         <v>0.13799999999999998</v>
       </c>
       <c r="B14">
-        <v>5.6399999999999992E-2</v>
+        <v>5.0399999999999993E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -474,7 +474,7 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="B15">
-        <v>5.8799999999999998E-2</v>
+        <v>5.2199999999999996E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -482,7 +482,7 @@
         <v>0.15</v>
       </c>
       <c r="B16">
-        <v>6.0599999999999994E-2</v>
+        <v>5.3999999999999992E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -490,7 +490,7 @@
         <v>0.156</v>
       </c>
       <c r="B17">
-        <v>6.3E-2</v>
+        <v>5.6399999999999992E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -498,7 +498,7 @@
         <v>0.16199999999999998</v>
       </c>
       <c r="B18">
-        <v>6.54E-2</v>
+        <v>5.8199999999999995E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -506,7 +506,7 @@
         <v>0.16799999999999998</v>
       </c>
       <c r="B19">
-        <v>6.7199999999999996E-2</v>
+        <v>6.0599999999999994E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -514,7 +514,7 @@
         <v>0.17399999999999999</v>
       </c>
       <c r="B20">
-        <v>6.9599999999999995E-2</v>
+        <v>6.2399999999999997E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -522,7 +522,7 @@
         <v>0.18</v>
       </c>
       <c r="B21">
-        <v>7.1399999999999991E-2</v>
+        <v>6.4799999999999996E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -530,7 +530,7 @@
         <v>0.18599999999999997</v>
       </c>
       <c r="B22">
-        <v>7.3199999999999987E-2</v>
+        <v>6.6599999999999993E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -538,7 +538,7 @@
         <v>0.19199999999999998</v>
       </c>
       <c r="B23">
-        <v>7.5599999999999987E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -546,7 +546,7 @@
         <v>0.19799999999999998</v>
       </c>
       <c r="B24">
-        <v>7.7399999999999997E-2</v>
+        <v>7.1399999999999991E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -554,7 +554,7 @@
         <v>0.20399999999999999</v>
       </c>
       <c r="B25">
-        <v>7.9799999999999996E-2</v>
+        <v>7.3199999999999987E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -562,7 +562,7 @@
         <v>0.21</v>
       </c>
       <c r="B26">
-        <v>8.1599999999999992E-2</v>
+        <v>7.5599999999999987E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -570,7 +570,7 @@
         <v>0.21599999999999997</v>
       </c>
       <c r="B27">
-        <v>8.3399999999999988E-2</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -578,7 +578,7 @@
         <v>0.22199999999999998</v>
       </c>
       <c r="B28">
-        <v>8.5799999999999987E-2</v>
+        <v>7.9799999999999996E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -586,7 +586,7 @@
         <v>0.22799999999999998</v>
       </c>
       <c r="B29">
-        <v>8.7599999999999997E-2</v>
+        <v>8.2199999999999995E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -594,7 +594,7 @@
         <v>0.23399999999999999</v>
       </c>
       <c r="B30">
-        <v>0.09</v>
+        <v>8.3999999999999991E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -602,7 +602,7 @@
         <v>0.24</v>
       </c>
       <c r="B31">
-        <v>9.1799999999999993E-2</v>
+        <v>8.6399999999999991E-2</v>
       </c>
     </row>
   </sheetData>
@@ -613,143 +613,140 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B31"/>
+      <selection sqref="A1:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>0.48387096774193544</v>
       </c>
       <c r="B1">
-        <v>41</v>
-      </c>
-      <c r="D1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0.532258064516129</v>
       </c>
       <c r="B2">
-        <v>40.909090909090914</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.37272727272727274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0.58064516129032251</v>
       </c>
       <c r="B3">
-        <v>41.666666666666671</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0.62903225806451613</v>
       </c>
       <c r="B4">
-        <v>41.53846153846154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.36923076923076925</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0.67741935483870963</v>
       </c>
       <c r="B5">
-        <v>41.428571428571431</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.37142857142857144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0.72580645161290325</v>
       </c>
       <c r="B6">
-        <v>41.333333333333336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.36666666666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0.77419354838709664</v>
       </c>
       <c r="B7">
-        <v>41.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.36875000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0.82258064516129026</v>
       </c>
       <c r="B8">
-        <v>41.17647058823529</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.36470588235294116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>0.87096774193548376</v>
       </c>
       <c r="B9">
-        <v>41.111111111111107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.36666666666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0.91935483870967738</v>
       </c>
       <c r="B10">
-        <v>41.05263157894737</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.36315789473684212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>0.96774193548387089</v>
       </c>
       <c r="B11">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.36499999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>1.0161290322580645</v>
       </c>
       <c r="B12">
-        <v>40.952380952380949</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.36666666666666664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>1.064516129032258</v>
       </c>
       <c r="B13">
-        <v>40.909090909090914</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>1.1129032258064515</v>
       </c>
       <c r="B14">
-        <v>40.869565217391305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.36521739130434783</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>1.161290322580645</v>
       </c>
       <c r="B15">
-        <v>40.833333333333336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+        <v>0.36249999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>1.2096774193548387</v>
       </c>
       <c r="B16">
-        <v>40.400000000000006</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -757,7 +754,7 @@
         <v>1.2580645161290323</v>
       </c>
       <c r="B17">
-        <v>40.384615384615387</v>
+        <v>0.36153846153846153</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -765,7 +762,7 @@
         <v>1.3064516129032255</v>
       </c>
       <c r="B18">
-        <v>40.370370370370374</v>
+        <v>0.35925925925925928</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -773,7 +770,7 @@
         <v>1.3548387096774193</v>
       </c>
       <c r="B19">
-        <v>40</v>
+        <v>0.36071428571428571</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -781,7 +778,7 @@
         <v>1.4032258064516128</v>
       </c>
       <c r="B20">
-        <v>40</v>
+        <v>0.35862068965517241</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -789,7 +786,7 @@
         <v>1.4516129032258065</v>
       </c>
       <c r="B21">
-        <v>39.666666666666664</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -797,7 +794,7 @@
         <v>1.4999999999999998</v>
       </c>
       <c r="B22">
-        <v>39.354838709677423</v>
+        <v>0.35806451612903228</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -805,7 +802,7 @@
         <v>1.5483870967741933</v>
       </c>
       <c r="B23">
-        <v>39.375</v>
+        <v>0.359375</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -813,7 +810,7 @@
         <v>1.596774193548387</v>
       </c>
       <c r="B24">
-        <v>39.090909090909093</v>
+        <v>0.3606060606060606</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -821,7 +818,7 @@
         <v>1.6451612903225805</v>
       </c>
       <c r="B25">
-        <v>39.117647058823529</v>
+        <v>0.35882352941176471</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -829,7 +826,7 @@
         <v>1.6935483870967742</v>
       </c>
       <c r="B26">
-        <v>38.857142857142854</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -837,7 +834,7 @@
         <v>1.7419354838709675</v>
       </c>
       <c r="B27">
-        <v>38.611111111111114</v>
+        <v>0.3611111111111111</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -845,7 +842,7 @@
         <v>1.790322580645161</v>
       </c>
       <c r="B28">
-        <v>38.648648648648646</v>
+        <v>0.35945945945945945</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -853,7 +850,7 @@
         <v>1.8387096774193548</v>
       </c>
       <c r="B29">
-        <v>38.421052631578945</v>
+        <v>0.36052631578947369</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -861,7 +858,7 @@
         <v>1.8870967741935483</v>
       </c>
       <c r="B30">
-        <v>38.461538461538467</v>
+        <v>0.35897435897435898</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -869,7 +866,7 @@
         <v>1.9354838709677418</v>
       </c>
       <c r="B31">
-        <v>38.25</v>
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
